--- a/Data/timesignatures.xlsx
+++ b/Data/timesignatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayne\GitRepos\SufjanSentiment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AA01C3-F5AD-45DE-B914-2F708F50850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE40A86-881F-4567-AD93-3D10B3644BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30150" yWindow="2475" windowWidth="25755" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Discography" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="364">
   <si>
     <t>Song Name</t>
   </si>
@@ -1084,6 +1084,36 @@
   </si>
   <si>
     <t>Godzukie</t>
+  </si>
+  <si>
+    <t>Goodbye Evergreen</t>
+  </si>
+  <si>
+    <t>A Running Start</t>
+  </si>
+  <si>
+    <t>Will Anybody Ever Love Me?</t>
+  </si>
+  <si>
+    <t>Everything That Rises</t>
+  </si>
+  <si>
+    <t>Genuflecting Ghost</t>
+  </si>
+  <si>
+    <t>My Little Red Fox</t>
+  </si>
+  <si>
+    <t>So You Are Tired</t>
+  </si>
+  <si>
+    <t>Javelin (To Have And To Hold)</t>
+  </si>
+  <si>
+    <t>Shit Talk</t>
+  </si>
+  <si>
+    <t>There's A World</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1124,7 @@
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1147,8 +1177,14 @@
       <color rgb="FF252525"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,8 +1311,20 @@
         <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1453,11 +1501,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1631,6 +1799,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1951,8 +2144,8 @@
   <dimension ref="A1:P761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R182" sqref="R182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11735,7 +11928,7 @@
       <c r="D196" s="46">
         <v>0</v>
       </c>
-      <c r="E196" s="63">
+      <c r="E196" s="143">
         <v>0</v>
       </c>
       <c r="F196" s="46">
@@ -11772,7 +11965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="12.75">
+    <row r="197" spans="1:16" ht="13.5" thickBot="1">
       <c r="A197" s="9" t="s">
         <v>212</v>
       </c>
@@ -11822,35 +12015,505 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="12.75">
-      <c r="P198" s="95"/>
-    </row>
-    <row r="199" spans="1:16" ht="12.75">
-      <c r="P199" s="95"/>
-    </row>
-    <row r="200" spans="1:16" ht="12.75">
-      <c r="P200" s="95"/>
-    </row>
-    <row r="201" spans="1:16" ht="12.75">
-      <c r="P201" s="95"/>
-    </row>
-    <row r="202" spans="1:16" ht="12.75">
-      <c r="P202" s="95"/>
-    </row>
-    <row r="203" spans="1:16" ht="12.75">
-      <c r="P203" s="95"/>
-    </row>
-    <row r="204" spans="1:16" ht="12.75">
-      <c r="P204" s="95"/>
-    </row>
-    <row r="205" spans="1:16" ht="12.75">
-      <c r="P205" s="95"/>
-    </row>
-    <row r="206" spans="1:16" ht="12.75">
-      <c r="P206" s="95"/>
-    </row>
-    <row r="207" spans="1:16" ht="12.75">
-      <c r="P207" s="95"/>
+    <row r="198" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A198" s="135" t="s">
+        <v>354</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="136">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K198" s="3">
+        <v>0</v>
+      </c>
+      <c r="L198" s="3">
+        <v>0</v>
+      </c>
+      <c r="M198" s="3">
+        <v>0</v>
+      </c>
+      <c r="N198" s="3">
+        <v>0</v>
+      </c>
+      <c r="O198" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="P198" s="137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A199" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199" s="139">
+        <v>1</v>
+      </c>
+      <c r="J199" s="3">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0</v>
+      </c>
+      <c r="L199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199" s="3">
+        <v>0</v>
+      </c>
+      <c r="N199" s="3">
+        <v>0</v>
+      </c>
+      <c r="O199" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="P199" s="140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A200" s="138" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="139">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0</v>
+      </c>
+      <c r="J200" s="3">
+        <v>0</v>
+      </c>
+      <c r="K200" s="3">
+        <v>0</v>
+      </c>
+      <c r="L200" s="3">
+        <v>0</v>
+      </c>
+      <c r="M200" s="3">
+        <v>0</v>
+      </c>
+      <c r="N200" s="3">
+        <v>0</v>
+      </c>
+      <c r="O200" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="P200" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A201" s="138" t="s">
+        <v>357</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="3">
+        <v>0</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="139">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0</v>
+      </c>
+      <c r="J201" s="3">
+        <v>0</v>
+      </c>
+      <c r="K201" s="3">
+        <v>0</v>
+      </c>
+      <c r="L201" s="3">
+        <v>0</v>
+      </c>
+      <c r="M201" s="3">
+        <v>0</v>
+      </c>
+      <c r="N201" s="3">
+        <v>0</v>
+      </c>
+      <c r="O201" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="P201" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A202" s="138" t="s">
+        <v>358</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0</v>
+      </c>
+      <c r="E202" s="139">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+      <c r="I202" s="3">
+        <v>0</v>
+      </c>
+      <c r="J202" s="3">
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <v>0</v>
+      </c>
+      <c r="L202" s="3">
+        <v>0</v>
+      </c>
+      <c r="M202" s="3">
+        <v>0</v>
+      </c>
+      <c r="N202" s="3">
+        <v>0</v>
+      </c>
+      <c r="O202" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="P202" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A203" s="138" t="s">
+        <v>359</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D203" s="139">
+        <v>1</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0</v>
+      </c>
+      <c r="J203" s="3">
+        <v>0</v>
+      </c>
+      <c r="K203" s="3">
+        <v>0</v>
+      </c>
+      <c r="L203" s="3">
+        <v>0</v>
+      </c>
+      <c r="M203" s="3">
+        <v>0</v>
+      </c>
+      <c r="N203" s="3">
+        <v>0</v>
+      </c>
+      <c r="O203" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="P203" s="140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A204" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J204" s="139">
+        <v>1</v>
+      </c>
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N204" s="3">
+        <v>0</v>
+      </c>
+      <c r="O204" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="P204" s="140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A205" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="139">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0</v>
+      </c>
+      <c r="J205" s="3">
+        <v>0</v>
+      </c>
+      <c r="K205" s="3">
+        <v>0</v>
+      </c>
+      <c r="L205" s="3">
+        <v>0</v>
+      </c>
+      <c r="M205" s="3">
+        <v>0</v>
+      </c>
+      <c r="N205" s="3">
+        <v>0</v>
+      </c>
+      <c r="O205" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="P205" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A206" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="139">
+        <v>1</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0</v>
+      </c>
+      <c r="K206" s="3">
+        <v>0</v>
+      </c>
+      <c r="L206" s="3">
+        <v>0</v>
+      </c>
+      <c r="M206" s="3">
+        <v>0</v>
+      </c>
+      <c r="N206" s="3">
+        <v>0</v>
+      </c>
+      <c r="O206" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="P206" s="140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A207" s="141" t="s">
+        <v>363</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="139">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0</v>
+      </c>
+      <c r="J207" s="3">
+        <v>0</v>
+      </c>
+      <c r="K207" s="3">
+        <v>0</v>
+      </c>
+      <c r="L207" s="3">
+        <v>0</v>
+      </c>
+      <c r="M207" s="3">
+        <v>0</v>
+      </c>
+      <c r="N207" s="3">
+        <v>0</v>
+      </c>
+      <c r="O207" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="P207" s="142">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" spans="1:16" ht="12.75">
       <c r="P208" s="95"/>
